--- a/analyses/03_DiagnosticPanels/data/kidney_diagnostic_panels_list.xlsx
+++ b/analyses/03_DiagnosticPanels/data/kidney_diagnostic_panels_list.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="65" documentId="8_{59E6E85E-5D83-4E58-AEE2-E92C1DCB730F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{948654A9-EF0B-45F3-9BAC-072484C52844}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99829F17-D70E-45E8-A7EF-9252DDED0F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{56192C67-DAEE-4A72-9F28-CD598F46EAEC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{56192C67-DAEE-4A72-9F28-CD598F46EAEC}"/>
   </bookViews>
   <sheets>
     <sheet name="diagnostic_panels" sheetId="1" r:id="rId1"/>
@@ -231,10 +231,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -538,7 +534,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>

--- a/analyses/03_DiagnosticPanels/data/kidney_diagnostic_panels_list.xlsx
+++ b/analyses/03_DiagnosticPanels/data/kidney_diagnostic_panels_list.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99829F17-D70E-45E8-A7EF-9252DDED0F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3663A8CB-86E8-4B36-9FB5-A85E5A2E9037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{56192C67-DAEE-4A72-9F28-CD598F46EAEC}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="diagnostic_panels" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">diagnostic_panels!$A$1:$H$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">diagnostic_panels!$A$1:$H$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
   <si>
     <t>number</t>
   </si>
@@ -60,21 +60,12 @@
     <t>preventiongenetics_comprehensive_inherited_kidney_diseases_panel</t>
   </si>
   <si>
-    <t>https://www.preventiongenetics.com/testInfo?val=Comprehensive-Inherited-Kidney-Diseases-Panel</t>
-  </si>
-  <si>
     <t>invitae_progressive_renal_disease_panel</t>
   </si>
   <si>
-    <t>https://www.invitae.com/en/providers/test-catalog/test-75000</t>
-  </si>
-  <si>
     <t>invitae_expanded_renal_disease_panel</t>
   </si>
   <si>
-    <t>https://www.invitae.com/en/providers/test-catalog/test-633100</t>
-  </si>
-  <si>
     <t>mgz_nephrologie</t>
   </si>
   <si>
@@ -84,9 +75,6 @@
     <t>mvz_nierenerkrankungen</t>
   </si>
   <si>
-    <t>https://www.medizinische-genetik.de/diagnostik/humangenetik/panelinformation?panel=229</t>
-  </si>
-  <si>
     <t>natera_renasight_comprehensive_kidney_gene_panel</t>
   </si>
   <si>
@@ -120,12 +108,6 @@
     <t>type</t>
   </si>
   <si>
-    <t>json</t>
-  </si>
-  <si>
-    <t>https://www.medizinische-genetik.de/fileadmin/MVZ-Martinsried/wcck/server/db_dataProvider.php?type=PanelTable&amp;panelid=229</t>
-  </si>
-  <si>
     <t>html</t>
   </si>
   <si>
@@ -135,9 +117,6 @@
     <t>yes</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>curl</t>
   </si>
   <si>
@@ -150,7 +129,16 @@
     <t>read_html</t>
   </si>
   <si>
-    <t>jsonlite</t>
+    <t>https://www.preventiongenetics.com/testInfo?val=PGmaxTM-%252D-Comprehensive-Inherited-Kidney-Diseases-Panel</t>
+  </si>
+  <si>
+    <t>https://www.invitae.com/us/providers/test-catalog/test-75000</t>
+  </si>
+  <si>
+    <t>https://www.invitae.com/us/providers/test-catalog/test-633100</t>
+  </si>
+  <si>
+    <t>https://www.medicover-diagnostics.de/lvz/panels/nierenerkrankungen-2806</t>
   </si>
 </sst>
 </file>
@@ -234,9 +222,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -274,7 +262,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -380,7 +368,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -522,7 +510,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -530,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F51FF2-E844-4A36-A2CD-AA8C6DE4505C}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -557,19 +545,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -583,13 +571,13 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -603,13 +591,13 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -620,16 +608,16 @@
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -637,19 +625,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -657,19 +645,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -677,19 +665,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -697,36 +685,39 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -734,89 +725,69 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>10</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>23</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H13" xr:uid="{48F51FF2-E844-4A36-A2CD-AA8C6DE4505C}"/>
+  <autoFilter ref="A1:H12" xr:uid="{48F51FF2-E844-4A36-A2CD-AA8C6DE4505C}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
